--- a/biology/Médecine/Service_public_d'information_en_santé/Service_public_d'information_en_santé.xlsx
+++ b/biology/Médecine/Service_public_d'information_en_santé/Service_public_d'information_en_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Service_public_d%27information_en_sant%C3%A9</t>
+          <t>Service_public_d'information_en_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le Service Public d’information en santé[1] a été prévu par l’article 88 de la Loi de modernisation du système de santé français, adoptée le 26 janvier 2016. Il est mis en place progressivement depuis juin 2019.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le Service Public d’information en santé a été prévu par l’article 88 de la Loi de modernisation du système de santé français, adoptée le 26 janvier 2016. Il est mis en place progressivement depuis juin 2019.
 Son objectif est de permettre à chacun de faire des choix éclairés en matière de santé et de prévention et d'avoir connaissance de l'offre de soin qui l'entoure.
 Il est placé sous la responsabilité du ministère chargé de la santé. Il a pour mission la diffusion gratuite et la plus large des informations relatives à la santé et aux produits de santé, notamment à l'offre sanitaire, médico-sociale et sociale auprès du public.
 Les informations diffusées par ce service sont adaptées et accessibles aux personnes en situation de handicap.
@@ -492,7 +504,7 @@
 des agences et des autorités compétentes dans le champ de la santé publique
 des agences régionales de santé
 Il se compose :
-d'un site internet couplé d'une application mobile sante.fr[2] ; un moteur de recherche qui permet la recherche d'informations sur des thématiques de santé et également l'offre de santé selon le territoire du consultant
+d'un site internet couplé d'une application mobile sante.fr ; un moteur de recherche qui permet la recherche d'informations sur des thématiques de santé et également l'offre de santé selon le territoire du consultant
 d'un lab lelab.sante.fr qui est un outil interactif et participatif pour l'évolution du site sante.fr tant sur le contenu que sur les fonctionnalités
 d'une charte d'engagement qui permet de proposer des informations précises et validées et Facile à lire et à comprendre</t>
         </is>
